--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420613.436494536</v>
+        <v>1506846.667405693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356212.29808316</v>
+        <v>10356212.29808315</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584566</v>
+        <v>6486630.972584558</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.182738146462111</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>5.992534413201032</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>180.2518826854696</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.6113061218865</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.1983439946918</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.392271247685</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>253.2326759943226</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>76.0019650891914</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635316</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2694521832856</v>
+        <v>200.1983439946922</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.32984897228668</v>
+        <v>275.2059151763009</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1923,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>101.2653985128666</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>86.20197997995095</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.54820969663194</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>165.8924477450846</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>23.733292388486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.141083162951849</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>134.2395953018553</v>
       </c>
     </row>
     <row r="22">
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53003894133915</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>62.60648269375874</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>142.4028983319022</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>190.5935397000524</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>63.15669216171793</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>37.28558504810934</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>195.3237932237977</v>
+        <v>222.5711216753766</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>59.80661789287595</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.15928918313332</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>58.50538525987325</v>
       </c>
       <c r="G29" t="n">
-        <v>317.7268320005476</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.0221759665002</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>205.2483248731551</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>335.1877818930206</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>222.5711216753766</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.22810184760093</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>18.9486474902143</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>261.2762180659472</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>275.2059151762987</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891923</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3360,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986873798</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.5952197620298</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
@@ -3481,7 +3483,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.1983439946918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>222.4991804029301</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>91.92915694297284</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.50388216741668</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355341</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.8720363095764</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.12355661844639</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4909029606678</v>
+        <v>18.21466120005499</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>120.7498319512181</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
@@ -3879,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>201.5542819079348</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.44192183746073</v>
+        <v>170.8629698603926</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>319.2358633318318</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>240.535634283479</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>21.69126064627581</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246437</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>134.2395953018544</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.22810184760063</v>
+        <v>183.5076427645221</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420.9851318756411</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0226149352294</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="D11" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="E11" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="F11" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G11" t="n">
-        <v>49.81782892870201</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H11" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326147</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520225</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V11" t="n">
-        <v>1571.190062176654</v>
+        <v>1571.190062176652</v>
       </c>
       <c r="W11" t="n">
-        <v>1571.190062176654</v>
+        <v>1218.421406906538</v>
       </c>
       <c r="X11" t="n">
-        <v>1197.724303915575</v>
+        <v>844.9556486454578</v>
       </c>
       <c r="Y11" t="n">
-        <v>807.5849719397629</v>
+        <v>838.9025835816184</v>
       </c>
     </row>
     <row r="12">
@@ -5103,58 +5105,58 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G12" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440161</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621916</v>
+        <v>550.7659925046441</v>
       </c>
       <c r="L12" t="n">
-        <v>576.9096910448543</v>
+        <v>871.0094820397323</v>
       </c>
       <c r="M12" t="n">
-        <v>932.3072952935261</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.802928286214</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.87083688438</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646089</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W12" t="n">
         <v>1515.130183187204</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="C13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="D13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="E13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112052</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.351743482101</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.259822331916</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U13" t="n">
-        <v>796.1400366611382</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="V13" t="n">
-        <v>541.4555484552513</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="W13" t="n">
-        <v>252.0383784182907</v>
+        <v>252.0383784182896</v>
       </c>
       <c r="X13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="Y13" t="n">
-        <v>252.0383784182907</v>
+        <v>49.81782892870196</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1420.460063757294</v>
+        <v>418.7803458691137</v>
       </c>
       <c r="C14" t="n">
-        <v>1051.497546816882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D14" t="n">
-        <v>693.2318482101318</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E14" t="n">
-        <v>693.2318482101318</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F14" t="n">
-        <v>693.2318482101318</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819853</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799505</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549168</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2490.891446435101</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U14" t="n">
-        <v>2490.891446435101</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V14" t="n">
-        <v>2159.82855909153</v>
+        <v>1824.775857982574</v>
       </c>
       <c r="W14" t="n">
-        <v>1807.059903821416</v>
+        <v>1568.985276170127</v>
       </c>
       <c r="X14" t="n">
-        <v>1807.059903821416</v>
+        <v>1195.519517909047</v>
       </c>
       <c r="Y14" t="n">
-        <v>1807.059903821416</v>
+        <v>805.3801859332355</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088824</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
-        <v>119.1040605898652</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>560.6342506504934</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L15" t="n">
-        <v>848.5985338331559</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.996138081827</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.208704312132</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O15" t="n">
-        <v>1907.894322025889</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787598</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477633</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490678</v>
@@ -5458,28 +5460,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.220368204926</v>
+        <v>796.1400366611375</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.220368204926</v>
+        <v>541.4555484552507</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.220368204926</v>
+        <v>252.0383784182901</v>
       </c>
       <c r="X16" t="n">
-        <v>1489.756275090497</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.963695946966</v>
+        <v>49.81782892870198</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>354.4831358895594</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="C17" t="n">
-        <v>354.4831358895594</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="D17" t="n">
-        <v>354.4831358895594</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="E17" t="n">
-        <v>354.4831358895594</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F17" t="n">
         <v>354.4831358895594</v>
@@ -5507,10 +5509,10 @@
         <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J17" t="n">
         <v>181.1756535819833</v>
@@ -5534,31 +5536,31 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U17" t="n">
-        <v>1902.252949520223</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="V17" t="n">
-        <v>1571.190062176653</v>
+        <v>2159.828559091527</v>
       </c>
       <c r="W17" t="n">
-        <v>1218.421406906539</v>
+        <v>1807.059903821413</v>
       </c>
       <c r="X17" t="n">
-        <v>844.9556486454587</v>
+        <v>1433.594145560333</v>
       </c>
       <c r="Y17" t="n">
-        <v>454.816316669647</v>
+        <v>1043.454813584521</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E18" t="n">
         <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J18" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K18" t="n">
-        <v>288.9454078621914</v>
+        <v>323.3511838881086</v>
       </c>
       <c r="L18" t="n">
-        <v>576.9096910448538</v>
+        <v>611.3154670707711</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.162637661386</v>
+        <v>966.7130713194426</v>
       </c>
       <c r="N18" t="n">
-        <v>1499.375203891691</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O18" t="n">
-        <v>2115.870836884378</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P18" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T18" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>831.6867069089295</v>
+        <v>198.792779527604</v>
       </c>
       <c r="C19" t="n">
-        <v>662.7505239810226</v>
+        <v>198.792779527604</v>
       </c>
       <c r="D19" t="n">
-        <v>512.6338845686869</v>
+        <v>198.792779527604</v>
       </c>
       <c r="E19" t="n">
-        <v>364.7207909862938</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F19" t="n">
-        <v>217.8308434883834</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J19" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M19" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5689,34 +5691,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q19" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1540.989853359844</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.898413729892</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1120.806492579708</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U19" t="n">
-        <v>831.6867069089295</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="V19" t="n">
-        <v>831.6867069089295</v>
+        <v>1065.416094328261</v>
       </c>
       <c r="W19" t="n">
-        <v>831.6867069089295</v>
+        <v>775.9989242913</v>
       </c>
       <c r="X19" t="n">
-        <v>831.6867069089295</v>
+        <v>548.0093733932827</v>
       </c>
       <c r="Y19" t="n">
-        <v>831.6867069089295</v>
+        <v>380.4412443578436</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1180.008349754413</v>
+        <v>829.7662506587212</v>
       </c>
       <c r="C20" t="n">
-        <v>1156.03532713978</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="D20" t="n">
-        <v>1156.03532713978</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="E20" t="n">
-        <v>770.247074541536</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F20" t="n">
-        <v>770.247074541536</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G20" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
         <v>49.81782892870198</v>
@@ -5762,7 +5764,7 @@
         <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
         <v>2002.031077317523</v>
@@ -5777,25 +5779,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435099</v>
+        <v>2482.668130108885</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.891446435099</v>
+        <v>2273.663391597608</v>
       </c>
       <c r="U20" t="n">
-        <v>2237.305650629177</v>
+        <v>2273.663391597608</v>
       </c>
       <c r="V20" t="n">
-        <v>1906.242763285607</v>
+        <v>1942.600504254037</v>
       </c>
       <c r="W20" t="n">
-        <v>1553.474108015492</v>
+        <v>1589.831848983923</v>
       </c>
       <c r="X20" t="n">
-        <v>1180.008349754413</v>
+        <v>1216.366090722843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1180.008349754413</v>
+        <v>1216.366090722843</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310207</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>583.0451988570708</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L21" t="n">
-        <v>871.0094820397333</v>
+        <v>787.1759816192941</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.407086288405</v>
+        <v>1142.573585867966</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.619652518709</v>
+        <v>1521.78615209827</v>
       </c>
       <c r="O21" t="n">
-        <v>1930.305270232466</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q21" t="n">
         <v>2490.891446435099</v>
@@ -5874,7 +5876,7 @@
         <v>1235.113935026672</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1968.986309346899</v>
+        <v>623.4373184602331</v>
       </c>
       <c r="C22" t="n">
-        <v>1800.050126418992</v>
+        <v>454.5011355323262</v>
       </c>
       <c r="D22" t="n">
-        <v>1649.933487006657</v>
+        <v>304.3844961199904</v>
       </c>
       <c r="E22" t="n">
-        <v>1502.020393424264</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="F22" t="n">
-        <v>1355.130445926353</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G22" t="n">
-        <v>1187.117431366672</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H22" t="n">
-        <v>1038.14248076777</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I22" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849488</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.78564187924</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694422</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460603</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>2387.114261342224</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>2371.427353320669</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>2371.427353320669</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U22" t="n">
-        <v>2371.427353320669</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V22" t="n">
-        <v>2371.427353320669</v>
+        <v>868.3246546983099</v>
       </c>
       <c r="W22" t="n">
-        <v>2371.427353320669</v>
+        <v>868.3246546983099</v>
       </c>
       <c r="X22" t="n">
-        <v>2371.427353320669</v>
+        <v>805.0857832904728</v>
       </c>
       <c r="Y22" t="n">
-        <v>2150.634774177139</v>
+        <v>805.0857832904728</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.8052870776</v>
+        <v>1787.78977230843</v>
       </c>
       <c r="C23" t="n">
-        <v>852.8427701371879</v>
+        <v>1418.827255368018</v>
       </c>
       <c r="D23" t="n">
-        <v>852.8427701371879</v>
+        <v>1060.561556761267</v>
       </c>
       <c r="E23" t="n">
-        <v>467.0545175389437</v>
+        <v>674.7733041630231</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0545175389437</v>
+        <v>263.7873993734156</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>254.8131514952477</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L23" t="n">
-        <v>846.5066693681792</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6023,16 +6025,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>2372.010217378613</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.010217378613</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.544459117533</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.405127141721</v>
+        <v>2174.389612372551</v>
       </c>
     </row>
     <row r="24">
@@ -6048,19 +6050,19 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915338</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
@@ -6072,22 +6074,22 @@
         <v>290.4181578204566</v>
       </c>
       <c r="L24" t="n">
-        <v>842.5881987990256</v>
+        <v>578.3824410031191</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.985803047697</v>
+        <v>933.7800452517906</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.198369278002</v>
+        <v>1312.992611482095</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004222</v>
+        <v>1874.230193844104</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>625.0487570667817</v>
+        <v>201.407218299303</v>
       </c>
       <c r="C25" t="n">
-        <v>625.0487570667817</v>
+        <v>201.407218299303</v>
       </c>
       <c r="D25" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E25" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
@@ -6172,25 +6174,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S25" t="n">
-        <v>1546.898479616002</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T25" t="n">
-        <v>1323.806558465817</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="U25" t="n">
-        <v>1034.686772795039</v>
+        <v>1375.939471413938</v>
       </c>
       <c r="V25" t="n">
-        <v>1034.686772795039</v>
+        <v>1121.254983208051</v>
       </c>
       <c r="W25" t="n">
-        <v>1034.686772795039</v>
+        <v>831.8378131710901</v>
       </c>
       <c r="X25" t="n">
-        <v>806.6972218970214</v>
+        <v>603.8482622730728</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.6972218970214</v>
+        <v>383.0556831295427</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1045.361497106938</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.361497106938</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="E26" t="n">
-        <v>659.5732445086937</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="F26" t="n">
-        <v>248.5873397190862</v>
+        <v>276.10989371058</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696726</v>
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
         <v>72.80815385915349</v>
@@ -6303,28 +6305,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204566</v>
+        <v>415.2482828074614</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031191</v>
+        <v>703.2125659901239</v>
       </c>
       <c r="M27" t="n">
-        <v>1213.103354729339</v>
+        <v>1252.512751564245</v>
       </c>
       <c r="N27" t="n">
-        <v>1847.824268455559</v>
+        <v>1887.233665290465</v>
       </c>
       <c r="O27" t="n">
-        <v>2189.508334797642</v>
+        <v>2211.919283004222</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559351</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6339,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6348,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>980.2625232914044</v>
+        <v>370.3434012272099</v>
       </c>
       <c r="C28" t="n">
-        <v>919.8517981470852</v>
+        <v>201.407218299303</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
         <v>51.29057888696726</v>
@@ -6415,19 +6417,19 @@
         <v>1610.693118163191</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163191</v>
+        <v>1544.875654341845</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.693118163191</v>
+        <v>1290.191166135958</v>
       </c>
       <c r="W28" t="n">
-        <v>1610.693118163191</v>
+        <v>1000.773996098997</v>
       </c>
       <c r="X28" t="n">
-        <v>1382.703567265174</v>
+        <v>772.7844452009798</v>
       </c>
       <c r="Y28" t="n">
-        <v>1161.910988121644</v>
+        <v>551.9918660574497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>730.4924714336648</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="C29" t="n">
-        <v>730.4924714336648</v>
+        <v>923.0963878793912</v>
       </c>
       <c r="D29" t="n">
-        <v>372.2267728269143</v>
+        <v>564.8306892726407</v>
       </c>
       <c r="E29" t="n">
-        <v>372.2267728269143</v>
+        <v>179.0424366743965</v>
       </c>
       <c r="F29" t="n">
-        <v>372.2267728269143</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
@@ -6470,43 +6472,43 @@
         <v>774.34192141318</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.976233479671</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N29" t="n">
-        <v>1621.826371324919</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O29" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P29" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.466057004792</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W29" t="n">
-        <v>1880.697401734678</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X29" t="n">
-        <v>1507.231643473598</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="Y29" t="n">
-        <v>1117.092311497787</v>
+        <v>1292.058904819803</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204565</v>
+        <v>415.2482828074614</v>
       </c>
       <c r="L30" t="n">
-        <v>578.382441003119</v>
+        <v>703.2125659901239</v>
       </c>
       <c r="M30" t="n">
-        <v>942.477455551782</v>
+        <v>1337.933479716344</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.198369278002</v>
+        <v>1887.233665290465</v>
       </c>
       <c r="O30" t="n">
         <v>2211.919283004222</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.613017108489</v>
+        <v>518.2564948096031</v>
       </c>
       <c r="C31" t="n">
-        <v>222.613017108489</v>
+        <v>349.3203118816961</v>
       </c>
       <c r="D31" t="n">
-        <v>222.613017108489</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="E31" t="n">
-        <v>222.613017108489</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
-        <v>222.613017108489</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>222.613017108489</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304157</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K31" t="n">
-        <v>243.587313607333</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
         <v>514.9498010977007</v>
@@ -6643,28 +6645,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.824011920132</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U31" t="n">
-        <v>994.7042262493538</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="V31" t="n">
-        <v>740.019738043467</v>
+        <v>1356.008629957304</v>
       </c>
       <c r="W31" t="n">
-        <v>450.6025680065064</v>
+        <v>1148.68708968139</v>
       </c>
       <c r="X31" t="n">
-        <v>222.613017108489</v>
+        <v>920.6975387833729</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.613017108489</v>
+        <v>699.9049596398428</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1117.092311497787</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C32" t="n">
-        <v>748.1297945573749</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D32" t="n">
-        <v>389.8640959506244</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="E32" t="n">
-        <v>51.29057888696726</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>276.10989371058</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6710,10 +6712,10 @@
         <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
         <v>2372.984825876113</v>
@@ -6734,16 +6736,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>1880.697401734678</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>1507.231643473598</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y32" t="n">
-        <v>1117.092311497787</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
@@ -6780,25 +6782,25 @@
         <v>110.7085524022812</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204565</v>
+        <v>290.4181578204566</v>
       </c>
       <c r="L33" t="n">
-        <v>578.382441003119</v>
+        <v>578.3824410031191</v>
       </c>
       <c r="M33" t="n">
         <v>1213.103354729339</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455558</v>
+        <v>1847.824268455559</v>
       </c>
       <c r="O33" t="n">
-        <v>2172.509886169315</v>
+        <v>2189.508334797642</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.29057888696726</v>
+        <v>220.2267618148742</v>
       </c>
       <c r="C34" t="n">
         <v>51.29057888696726</v>
@@ -6856,10 +6858,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304157</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
-        <v>243.587313607333</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
         <v>514.9498010977007</v>
@@ -6880,28 +6882,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1532.684934478746</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.593494848795</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.50157369861</v>
+        <v>1394.461630563327</v>
       </c>
       <c r="U34" t="n">
-        <v>823.381788027832</v>
+        <v>1105.341844892548</v>
       </c>
       <c r="V34" t="n">
-        <v>568.6972998219452</v>
+        <v>850.6573566866614</v>
       </c>
       <c r="W34" t="n">
-        <v>279.2801297849846</v>
+        <v>850.6573566866614</v>
       </c>
       <c r="X34" t="n">
-        <v>51.29057888696726</v>
+        <v>622.667805788644</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.29057888696726</v>
+        <v>401.8752266451139</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1043.454813584519</v>
+        <v>1884.536995359066</v>
       </c>
       <c r="C35" t="n">
-        <v>1043.454813584519</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D35" t="n">
-        <v>1043.454813584519</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E35" t="n">
-        <v>1043.454813584519</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>632.4689087949116</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895593</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819803</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799455</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549118</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240655</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085903</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.03107731752</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962845</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561743</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U35" t="n">
-        <v>2490.891446435096</v>
+        <v>2237.30565062918</v>
       </c>
       <c r="V35" t="n">
-        <v>2159.828559091525</v>
+        <v>2237.30565062918</v>
       </c>
       <c r="W35" t="n">
-        <v>1807.059903821411</v>
+        <v>1884.536995359066</v>
       </c>
       <c r="X35" t="n">
-        <v>1433.594145560331</v>
+        <v>1884.536995359066</v>
       </c>
       <c r="Y35" t="n">
-        <v>1043.454813584519</v>
+        <v>1884.536995359066</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416466</v>
+        <v>859.1382992416525</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605196</v>
+        <v>684.6852699605255</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992683</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938128</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473206978</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005341</v>
+        <v>165.4105161450558</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870191</v>
+        <v>71.33540390088825</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J36" t="n">
-        <v>109.2358024440159</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621912</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448536</v>
+        <v>580.6049013918279</v>
       </c>
       <c r="M36" t="n">
-        <v>1193.40532403754</v>
+        <v>1197.100534384515</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.185219170618</v>
+        <v>1813.596167377203</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.870836884375</v>
+        <v>2138.28178509096</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646084</v>
+        <v>2379.537551852669</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.480498228516</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.58136295745</v>
+        <v>2354.581362957456</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087778997</v>
+        <v>2160.447087779003</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192146</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960403</v>
+        <v>1697.202791960409</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232201</v>
+        <v>1442.965435232207</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026669</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261715</v>
+        <v>1027.353636261721</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870191</v>
+        <v>641.3336936075788</v>
       </c>
       <c r="C37" t="n">
-        <v>49.81782892870191</v>
+        <v>472.3975106796719</v>
       </c>
       <c r="D37" t="n">
-        <v>49.81782892870191</v>
+        <v>472.3975106796719</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870191</v>
+        <v>324.4844170972788</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870191</v>
+        <v>324.4844170972788</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870191</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870191</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477621</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7111,34 +7113,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331915</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U37" t="n">
-        <v>796.1400366611371</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V37" t="n">
-        <v>541.4555484552502</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="W37" t="n">
-        <v>252.0383784182896</v>
+        <v>807.5914913470028</v>
       </c>
       <c r="X37" t="n">
-        <v>252.0383784182896</v>
+        <v>807.5914913470028</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.81782892870191</v>
+        <v>807.5914913470028</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>819.06943232506</v>
+        <v>1429.604331794951</v>
       </c>
       <c r="C38" t="n">
-        <v>819.06943232506</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D38" t="n">
-        <v>460.8037337183094</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183094</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819803</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799455</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549118</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240655</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085903</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.03107731752</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962845</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561743</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2398.033712149264</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2189.028973637987</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U38" t="n">
-        <v>1935.443177832066</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V38" t="n">
-        <v>1935.443177832066</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W38" t="n">
-        <v>1582.674522561952</v>
+        <v>1803.070090056031</v>
       </c>
       <c r="X38" t="n">
-        <v>1209.208764300872</v>
+        <v>1429.604331794951</v>
       </c>
       <c r="Y38" t="n">
-        <v>819.06943232506</v>
+        <v>1429.604331794951</v>
       </c>
     </row>
     <row r="39">
@@ -7239,49 +7241,49 @@
         <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088815</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310206</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>413.7755328491959</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L39" t="n">
-        <v>701.7398160318584</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M39" t="n">
-        <v>1057.13742028053</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1673.633053273216</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
-        <v>1998.318670986973</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.574437748682</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228516</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435096</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
         <v>2004.519648147148</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.81782892870191</v>
+        <v>585.5954182033038</v>
       </c>
       <c r="C40" t="n">
-        <v>49.81782892870191</v>
+        <v>416.6592352753969</v>
       </c>
       <c r="D40" t="n">
-        <v>49.81782892870191</v>
+        <v>266.5425958630611</v>
       </c>
       <c r="E40" t="n">
-        <v>49.81782892870191</v>
+        <v>118.629502280668</v>
       </c>
       <c r="F40" t="n">
-        <v>49.81782892870191</v>
+        <v>118.629502280668</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870191</v>
+        <v>118.629502280668</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870191</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477621</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7348,34 +7350,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T40" t="n">
-        <v>1189.03700742479</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U40" t="n">
-        <v>1189.03700742479</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V40" t="n">
-        <v>934.3525192189032</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="W40" t="n">
-        <v>644.9353491819427</v>
+        <v>1216.026013075091</v>
       </c>
       <c r="X40" t="n">
-        <v>416.9457982839253</v>
+        <v>988.0364621770736</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.1532191403952</v>
+        <v>767.2438830335435</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1588.104311797488</v>
+        <v>68.2164766055252</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.35592496853</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.35592496853</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E41" t="n">
-        <v>876.567672370286</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F41" t="n">
-        <v>465.5817675806784</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T41" t="n">
-        <v>2364.843483837421</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U41" t="n">
-        <v>2364.843483837421</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V41" t="n">
-        <v>2364.843483837421</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W41" t="n">
-        <v>2364.843483837421</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X41" t="n">
-        <v>2364.843483837421</v>
+        <v>844.9556486454587</v>
       </c>
       <c r="Y41" t="n">
-        <v>1974.704151861609</v>
+        <v>454.816316669647</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K42" t="n">
-        <v>413.775532849196</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L42" t="n">
-        <v>701.7398160318585</v>
+        <v>576.9096910448538</v>
       </c>
       <c r="M42" t="n">
-        <v>1057.13742028053</v>
+        <v>932.3072952935254</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.633053273217</v>
+        <v>1311.51986152383</v>
       </c>
       <c r="O42" t="n">
-        <v>1998.318670986974</v>
+        <v>1636.205479237587</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.574437748683</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.130183187204</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.278682981671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>663.6736923492481</v>
+        <v>516.7837448513377</v>
       </c>
       <c r="C43" t="n">
-        <v>494.7375094213412</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6208700090054</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E43" t="n">
-        <v>196.7077764266123</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477626</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7585,7 +7587,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
         <v>1609.220368204926</v>
@@ -7603,16 +7605,16 @@
         <v>1609.220368204926</v>
       </c>
       <c r="V43" t="n">
-        <v>1583.521457257996</v>
+        <v>1436.631509760085</v>
       </c>
       <c r="W43" t="n">
-        <v>1294.104287221035</v>
+        <v>1147.214339723125</v>
       </c>
       <c r="X43" t="n">
-        <v>1066.114736323018</v>
+        <v>919.2247888251076</v>
       </c>
       <c r="Y43" t="n">
-        <v>845.3221571794878</v>
+        <v>698.4322096815774</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1169.052454328505</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="C44" t="n">
-        <v>1169.052454328505</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="D44" t="n">
-        <v>846.5919863165537</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="E44" t="n">
-        <v>460.8037337183095</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870196</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870196</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870196</v>
@@ -7652,7 +7654,7 @@
         <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
@@ -7673,25 +7675,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.886707923821</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U44" t="n">
-        <v>2281.886707923821</v>
+        <v>1912.873458171115</v>
       </c>
       <c r="V44" t="n">
-        <v>2281.886707923821</v>
+        <v>1581.810570827544</v>
       </c>
       <c r="W44" t="n">
-        <v>1929.118052653707</v>
+        <v>1229.04191555743</v>
       </c>
       <c r="X44" t="n">
-        <v>1555.652294392627</v>
+        <v>1229.04191555743</v>
       </c>
       <c r="Y44" t="n">
-        <v>1555.652294392627</v>
+        <v>838.9025835816184</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
         <v>71.3354039008882</v>
@@ -7725,28 +7727,28 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K45" t="n">
-        <v>675.5961174916488</v>
+        <v>288.9454078621912</v>
       </c>
       <c r="L45" t="n">
-        <v>963.5604006743113</v>
+        <v>576.9096910448537</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.958004922983</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.596167377199</v>
+        <v>1791.18521917062</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.281785090956</v>
+        <v>2115.870836884377</v>
       </c>
       <c r="P45" t="n">
-        <v>2379.537551852665</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R45" t="n">
         <v>2490.891446435098</v>
@@ -7770,7 +7772,7 @@
         <v>1235.113935026671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.81782892870196</v>
+        <v>663.6736923492481</v>
       </c>
       <c r="C46" t="n">
-        <v>49.81782892870196</v>
+        <v>494.7375094213412</v>
       </c>
       <c r="D46" t="n">
-        <v>49.81782892870196</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870196</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F46" t="n">
         <v>49.81782892870196</v>
@@ -7831,25 +7833,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.03700742479</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U46" t="n">
-        <v>899.9172217540118</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="V46" t="n">
-        <v>645.232733548125</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="W46" t="n">
-        <v>355.8155635111644</v>
+        <v>1030.683412497187</v>
       </c>
       <c r="X46" t="n">
-        <v>127.826012613147</v>
+        <v>1030.683412497187</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.81782892870196</v>
+        <v>845.3221571794878</v>
       </c>
     </row>
   </sheetData>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>32.60525894184411</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>239.679865416548</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>244.8305968529382</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>9.967937521059838</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>34.75330911708812</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>189.7528710786477</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O18" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>170.9794606140149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>212.3901924994346</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>294.7575911908384</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>22.88434839053382</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.89368480302946</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>7.177264930046817</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>266.8745028241479</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>313.1669656691544</v>
+        <v>238.9413784325779</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480286</v>
+        <v>195.8611932580296</v>
       </c>
       <c r="N27" t="n">
         <v>258.0892398948638</v>
       </c>
       <c r="O27" t="n">
-        <v>17.17015012962298</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>7.177264930047556</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>8.785262929284443</v>
+        <v>282.1447570480286</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948638</v>
+        <v>171.8056761048648</v>
       </c>
       <c r="O30" t="n">
-        <v>313.1669656691545</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>72.89368480302954</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>72.89368480302932</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480287</v>
+        <v>282.1447570480286</v>
       </c>
       <c r="N33" t="n">
         <v>258.0892398948638</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>17.17015012962298</v>
       </c>
       <c r="P33" t="n">
-        <v>39.80747155041013</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.469185807616656e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3.73253570401414</v>
       </c>
       <c r="M36" t="n">
-        <v>263.7353825697118</v>
+        <v>263.7353825697133</v>
       </c>
       <c r="N36" t="n">
-        <v>220.7750796997714</v>
+        <v>239.6798654165484</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165469</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.7395615125274</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>274.4331745336366</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.7395615125288</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>244.8305968529377</v>
       </c>
       <c r="N45" t="n">
-        <v>116.591511337285</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>352.5003034742209</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>380.2454042428525</v>
       </c>
     </row>
     <row r="12">
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>71.44310047545</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>52.87389497102647</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>25.5113113943454</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2140280177717</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>96.00829272309045</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23577,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>50.14070125298477</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>107.4402032057515</v>
+        <v>25.51131139434497</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.4039926911939</v>
+        <v>107.5279264871797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23811,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>71.44310047544919</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>71.44310047545</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.1912035453141</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>52.69220560701015</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>341.5395993825215</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
         <v>67.96895394968166</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>116.6463998087483</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
     </row>
     <row r="22">
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>179.5904862923126</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>163.1031726952784</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>269.2034009335546</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>137.1587187700825</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>131.9638330719338</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.9430027659611</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>216.282506041659</v>
+        <v>189.0351775900801</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>107.4402032057519</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>221.0692986309371</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>348.3706604818382</v>
       </c>
       <c r="G29" t="n">
-        <v>93.87946726490912</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>83.46302512641277</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.27467346343593</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>46.74258817924118</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>189.0351775900801</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24974,10 +24976,10 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.51131139434513</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>201.9123544484685</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>103.9966737050603</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>136.400384089158</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -25208,19 +25210,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>71.44310047544646</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298785</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>15.23676041990748</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.38630935740301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>142.7737113680774</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>32.8583260287273</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.44310047545223</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>71.44310047544911</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.95994387236092</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>79.36164447446659</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>42.78198881033978</v>
+        <v>347.0582305709526</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25725,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>71.44310047544997</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>50.14070125298483</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
@@ -25843,7 +25845,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>226.6957214863673</v>
+        <v>81.27467346343545</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>35.44717828885115</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>10.51430356438325</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>71.44310047545</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
@@ -26071,25 +26073,25 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.3565515044942</v>
+        <v>35.07701058757266</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662906.145285803</v>
+        <v>662906.1452858027</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662906.1452858031</v>
+        <v>662906.1452858028</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662906.1452858028</v>
+        <v>662906.1452858025</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662906.1452858023</v>
+        <v>662906.1452858031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662906.1452858022</v>
+        <v>662906.1452858028</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662906.1452858027</v>
+        <v>662906.1452858028</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>662906.1452858025</v>
+        <v>662906.1452858027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553011.528634001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>553011.528634001</v>
+      </c>
+      <c r="D2" t="n">
         <v>553011.5286340008</v>
       </c>
-      <c r="C2" t="n">
-        <v>553011.5286340009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553011.5286340009</v>
-      </c>
       <c r="E2" t="n">
-        <v>406590.8011732857</v>
+        <v>406590.8011732852</v>
       </c>
       <c r="F2" t="n">
+        <v>406590.8011732853</v>
+      </c>
+      <c r="G2" t="n">
+        <v>406590.8011732851</v>
+      </c>
+      <c r="H2" t="n">
+        <v>406590.8011732853</v>
+      </c>
+      <c r="I2" t="n">
+        <v>412474.1404974385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>412474.1404974385</v>
+      </c>
+      <c r="K2" t="n">
+        <v>412474.1404974383</v>
+      </c>
+      <c r="L2" t="n">
+        <v>412474.1404974383</v>
+      </c>
+      <c r="M2" t="n">
         <v>406590.8011732854</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>406590.8011732851</v>
+      </c>
+      <c r="O2" t="n">
         <v>406590.8011732854</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>406590.8011732851</v>
-      </c>
-      <c r="I2" t="n">
-        <v>412474.1404974384</v>
-      </c>
-      <c r="J2" t="n">
-        <v>412474.1404974383</v>
-      </c>
-      <c r="K2" t="n">
-        <v>412474.1404974386</v>
-      </c>
-      <c r="L2" t="n">
-        <v>412474.1404974384</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406590.8011732849</v>
-      </c>
-      <c r="N2" t="n">
-        <v>406590.8011732849</v>
-      </c>
-      <c r="O2" t="n">
-        <v>406590.8011732851</v>
-      </c>
-      <c r="P2" t="n">
-        <v>406590.8011732852</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761242</v>
+        <v>924651.5793761238</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.608323018930336e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648292</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468585</v>
+        <v>150597.3382468586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>414772.3986129589</v>
+        <v>414772.398612959</v>
       </c>
       <c r="D4" t="n">
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
+        <v>15880.58142742344</v>
+      </c>
+      <c r="F4" t="n">
         <v>15880.58142742346</v>
       </c>
-      <c r="F4" t="n">
-        <v>15880.58142742353</v>
-      </c>
       <c r="G4" t="n">
+        <v>15880.58142742344</v>
+      </c>
+      <c r="H4" t="n">
         <v>15880.58142742346</v>
       </c>
-      <c r="H4" t="n">
-        <v>15880.58142742345</v>
-      </c>
       <c r="I4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418252</v>
       </c>
       <c r="J4" t="n">
         <v>18784.15557418253</v>
       </c>
       <c r="K4" t="n">
-        <v>18784.15557418255</v>
+        <v>18784.15557418253</v>
       </c>
       <c r="L4" t="n">
-        <v>18784.15557418254</v>
+        <v>18784.15557418253</v>
       </c>
       <c r="M4" t="n">
-        <v>15880.58142742335</v>
+        <v>15880.58142742357</v>
       </c>
       <c r="N4" t="n">
-        <v>15880.58142742334</v>
+        <v>15880.58142742345</v>
       </c>
       <c r="O4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="P4" t="n">
         <v>15880.58142742345</v>
@@ -26476,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425672</v>
@@ -26494,19 +26496,19 @@
         <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425667</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425667</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
         <v>57906.41050425671</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>104611.5300210421</v>
+      </c>
+      <c r="C6" t="n">
+        <v>104611.5300210421</v>
+      </c>
+      <c r="D6" t="n">
         <v>104611.5300210419</v>
-      </c>
-      <c r="C6" t="n">
-        <v>104611.530021042</v>
-      </c>
-      <c r="D6" t="n">
-        <v>104611.530021042</v>
       </c>
       <c r="E6" t="n">
         <v>-591847.7701345187</v>
       </c>
       <c r="F6" t="n">
-        <v>332803.8092416051</v>
+        <v>332803.809241605</v>
       </c>
       <c r="G6" t="n">
-        <v>332803.8092416054</v>
+        <v>332803.8092416049</v>
       </c>
       <c r="H6" t="n">
-        <v>332803.8092416049</v>
+        <v>332803.8092416052</v>
       </c>
       <c r="I6" t="n">
         <v>329768.8451800693</v>
       </c>
       <c r="J6" t="n">
+        <v>334664.2844507176</v>
+      </c>
+      <c r="K6" t="n">
         <v>334664.2844507174</v>
       </c>
-      <c r="K6" t="n">
-        <v>334664.2844507177</v>
-      </c>
       <c r="L6" t="n">
-        <v>334664.2844507176</v>
+        <v>334664.2844507174</v>
       </c>
       <c r="M6" t="n">
-        <v>182206.4709947464</v>
+        <v>182206.4709947465</v>
       </c>
       <c r="N6" t="n">
         <v>332803.8092416049</v>
       </c>
       <c r="O6" t="n">
-        <v>332803.809241605</v>
+        <v>332803.8092416052</v>
       </c>
       <c r="P6" t="n">
-        <v>332803.809241605</v>
+        <v>332803.8092416049</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
         <v>919.4890146074872</v>
@@ -26762,19 +26764,19 @@
         <v>919.4890146074872</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="P3" t="n">
         <v>919.4890146074871</v>
@@ -26796,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087747</v>
@@ -26820,13 +26822,13 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087739</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087739</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087745</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831609</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304575</v>
+        <v>604.3134871304578</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K12" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207242</v>
@@ -33190,10 +33192,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404915</v>
@@ -33202,13 +33204,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796693</v>
@@ -33257,13 +33259,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
         <v>429.4273930956949</v>
@@ -33275,10 +33277,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
         <v>252.460455482418</v>
@@ -33287,7 +33289,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
         <v>7.971796268153589</v>
@@ -33360,16 +33362,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U31" t="n">
         <v>0.09044154242040867</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207242</v>
@@ -33427,10 +33429,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404915</v>
@@ -33439,13 +33441,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796693</v>
@@ -33494,13 +33496,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.4273930956949</v>
@@ -33512,10 +33514,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.460455482418</v>
@@ -33524,7 +33526,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
         <v>7.971796268153589</v>
@@ -33597,16 +33599,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
         <v>0.09044154242040867</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207242</v>
@@ -33664,10 +33666,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404915</v>
@@ -33676,13 +33678,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796693</v>
@@ -33731,13 +33733,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.4273930956949</v>
@@ -33749,10 +33751,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.460455482418</v>
@@ -33761,7 +33763,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
         <v>7.971796268153589</v>
@@ -33834,16 +33836,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
         <v>0.09044154242040867</v>
@@ -33883,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207242</v>
@@ -33901,10 +33903,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404915</v>
@@ -33913,13 +33915,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796693</v>
@@ -33968,13 +33970,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.4273930956949</v>
@@ -33986,10 +33988,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.460455482418</v>
@@ -33998,7 +34000,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
         <v>7.971796268153589</v>
@@ -34071,16 +34073,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
         <v>0.09044154242040867</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207242</v>
@@ -34138,10 +34140,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
         <v>622.8082601404915</v>
@@ -34150,13 +34152,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
@@ -34205,13 +34207,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.4273930956949</v>
@@ -34223,10 +34225,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.460455482418</v>
@@ -34235,7 +34237,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
         <v>7.971796268153589</v>
@@ -34308,16 +34310,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U43" t="n">
         <v>0.09044154242040867</v>
@@ -34387,7 +34389,7 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349515</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962881</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K12" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>323.4782722576649</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N12" t="n">
-        <v>622.7228616087751</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O12" t="n">
-        <v>572.7958672708747</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669528</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K14" t="n">
         <v>250.1109559575407</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>69.98609258703357</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703315</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158207</v>
@@ -35735,7 +35737,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>531.3851353854549</v>
       </c>
       <c r="O15" t="n">
         <v>327.9652704179363</v>
@@ -35963,25 +35965,25 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577529</v>
+        <v>216.278163074841</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M18" t="n">
-        <v>548.7403501177098</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O18" t="n">
-        <v>622.7228616087747</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R18" t="n">
         <v>22.637321420787</v>
@@ -36127,7 +36129,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
@@ -36139,7 +36141,7 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.868056160503</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
         <v>16.61085138722495</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5043145717678</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158207</v>
+        <v>503.2632058152553</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390621</v>
@@ -36212,13 +36214,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179363</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P21" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.5783561699803</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
@@ -36373,13 +36375,13 @@
         <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962879</v>
+        <v>307.4967100263347</v>
       </c>
       <c r="Q23" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722495</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>181.5248539577529</v>
       </c>
       <c r="L24" t="n">
-        <v>557.7475161399686</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390621</v>
@@ -36449,16 +36451,16 @@
         <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>641.1322360870907</v>
+        <v>566.9066488505142</v>
       </c>
       <c r="P24" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q24" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
         <v>181.5248539577529</v>
@@ -36680,13 +36682,13 @@
         <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>554.8486722970918</v>
       </c>
       <c r="N27" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="O27" t="n">
-        <v>345.1354205475593</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
         <v>243.692693698696</v>
@@ -36695,7 +36697,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R27" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
-        <v>425.8932445116066</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891395</v>
+        <v>503.0453391921691</v>
       </c>
       <c r="O29" t="n">
         <v>392.7100487188047</v>
@@ -36850,10 +36852,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020737</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>367.7727419683465</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>554.8486722970918</v>
       </c>
       <c r="O30" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
         <v>243.692693698696</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K31" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
         <v>274.1035227175431</v>
@@ -37008,7 +37010,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
-        <v>503.0453391921691</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962879</v>
+        <v>373.2131298993172</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
@@ -37160,16 +37162,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179363</v>
+        <v>345.1354205475593</v>
       </c>
       <c r="P33" t="n">
-        <v>283.5001652491061</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
         <v>274.1035227175431</v>
@@ -37245,7 +37247,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669479</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
         <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962908</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158207</v>
+        <v>294.6055490198349</v>
       </c>
       <c r="M36" t="n">
-        <v>622.7228616087739</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="N36" t="n">
-        <v>603.8180758919983</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="O36" t="n">
         <v>327.9652704179363</v>
@@ -37406,7 +37408,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
         <v>274.1035227175431</v>
@@ -37482,7 +37484,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669479</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
         <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.5248539577528</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
@@ -37631,7 +37633,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087739</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179363</v>
@@ -37640,10 +37642,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>231.2182429089239</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078699</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
         <v>274.1035227175431</v>
@@ -37719,7 +37721,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
         <v>392.7100487188047</v>
@@ -37798,10 +37800,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158207</v>
@@ -37868,19 +37870,19 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>622.7228616087745</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>243.692693698696</v>
+        <v>518.1258682323327</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.2182429089253</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
         <v>274.1035227175431</v>
@@ -37956,7 +37958,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605021</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
         <v>16.61085138722493</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063825</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9900909703314</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>603.8180758919998</v>
       </c>
       <c r="N45" t="n">
-        <v>499.6345075295119</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O45" t="n">
         <v>327.9652704179363</v>
@@ -38117,7 +38119,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506846.667405693</v>
+        <v>1474565.263874811</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356212.29808315</v>
+        <v>10356212.29808314</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8530753.346335003</v>
+        <v>8530753.346335005</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>77.54728525389878</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.992534413201032</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>180.2518826854696</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.257123604346</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>200.1983439946918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>165.0908030247577</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>253.2326759943226</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>85.22504708635316</v>
+        <v>63.9226478638888</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>53.763973729158</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>200.1983439946922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.2059151763009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>208.5712103158376</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>86.20197997995095</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>106.7984997308377</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.8924477450846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>219.0364030735198</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.141083162951849</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635316</v>
       </c>
       <c r="H21" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>134.2395953018553</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.42116811934497</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>62.60648269375874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>142.4028983319022</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>227.5905096386929</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246426</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>109.3054134963588</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
         <v>195.1205252336517</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>37.28558504810934</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>6.654324041802353</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>222.5711216753766</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>94.7929954859033</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>65.15928918313332</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>58.50538525987325</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>81.02143177966725</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>213.7747622013456</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>205.2483248731551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>222.5711216753766</v>
+        <v>222.5711216753771</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>18.9486474902143</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>77.22810184760078</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>261.2762180659472</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>151.4944064535812</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>76.0019650891923</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,7 +3362,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627936</v>
       </c>
       <c r="I36" t="n">
         <v>21.30239922246436</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.5952197620298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>76.02933330228129</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>222.4991804029301</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>179.8223167815128</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
-        <v>154.3681652355341</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>116.6122549636552</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>68.12355661844639</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>18.21466120005499</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>231.0552800627228</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>201.5542819079348</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>74.63520749618537</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>170.8629698603926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>240.535634283479</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>156.5700941031967</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>134.2395953018544</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>55.65071107467448</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.5076427645221</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C11" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D11" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E11" t="n">
-        <v>838.9025835816184</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870196</v>
@@ -5047,7 +5047,7 @@
         <v>428.7854999799486</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240658</v>
@@ -5068,25 +5068,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837421</v>
+        <v>2412.560855269543</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326144</v>
+        <v>2412.560855269543</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520223</v>
+        <v>2412.560855269543</v>
       </c>
       <c r="V11" t="n">
-        <v>1571.190062176652</v>
+        <v>2412.560855269543</v>
       </c>
       <c r="W11" t="n">
-        <v>1218.421406906538</v>
+        <v>2412.560855269543</v>
       </c>
       <c r="X11" t="n">
-        <v>844.9556486454578</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y11" t="n">
-        <v>838.9025835816184</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="12">
@@ -5126,37 +5126,37 @@
         <v>550.7659925046441</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397323</v>
+        <v>838.7302756873066</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288404</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518709</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232466</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994175</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435098</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
         <v>1515.130183187204</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.81782892870196</v>
+        <v>169.2694689330919</v>
       </c>
       <c r="C13" t="n">
-        <v>49.81782892870196</v>
+        <v>169.2694689330919</v>
       </c>
       <c r="D13" t="n">
         <v>49.81782892870196</v>
@@ -5223,28 +5223,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.259822331915</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U13" t="n">
-        <v>796.1400366611371</v>
+        <v>1123.009142904196</v>
       </c>
       <c r="V13" t="n">
-        <v>541.4555484552502</v>
+        <v>868.3246546983095</v>
       </c>
       <c r="W13" t="n">
-        <v>252.0383784182896</v>
+        <v>578.9074846613489</v>
       </c>
       <c r="X13" t="n">
-        <v>49.81782892870196</v>
+        <v>350.9179337633316</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.81782892870196</v>
+        <v>350.9179337633316</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.7803458691137</v>
+        <v>1248.469738330416</v>
       </c>
       <c r="C14" t="n">
-        <v>49.81782892870198</v>
+        <v>879.5072213900046</v>
       </c>
       <c r="D14" t="n">
-        <v>49.81782892870198</v>
+        <v>521.2415227832541</v>
       </c>
       <c r="E14" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F14" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H14" t="n">
         <v>49.81782892870198</v>
@@ -5308,22 +5308,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V14" t="n">
-        <v>1824.775857982574</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W14" t="n">
-        <v>1568.985276170127</v>
+        <v>2012.074828567308</v>
       </c>
       <c r="X14" t="n">
-        <v>1195.519517909047</v>
+        <v>1638.609070306228</v>
       </c>
       <c r="Y14" t="n">
-        <v>805.3801859332355</v>
+        <v>1248.469738330416</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>229.978847320701</v>
       </c>
       <c r="G15" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870198</v>
@@ -5369,13 +5369,13 @@
         <v>1057.13742028053</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.20870431213</v>
+        <v>1673.633053273217</v>
       </c>
       <c r="O15" t="n">
-        <v>1907.894322025887</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787596</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q15" t="n">
         <v>2468.48049822852</v>
@@ -5460,25 +5460,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611375</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552507</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W16" t="n">
-        <v>252.0383784182901</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X16" t="n">
-        <v>49.81782892870198</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y16" t="n">
         <v>49.81782892870198</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4690406791669</v>
+        <v>1460.566478589244</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4690406791669</v>
+        <v>1460.566478589244</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4690406791669</v>
+        <v>1460.566478589244</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4690406791669</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F17" t="n">
-        <v>354.4831358895594</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
         <v>181.1756535819833</v>
@@ -5539,28 +5539,28 @@
         <v>2474.446703561745</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435098</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V17" t="n">
-        <v>2159.828559091527</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="W17" t="n">
-        <v>1807.059903821413</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="X17" t="n">
-        <v>1433.594145560333</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="Y17" t="n">
-        <v>1043.454813584521</v>
+        <v>1847.166318653366</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
         <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>323.3511838881086</v>
+        <v>475.7435727620236</v>
       </c>
       <c r="L18" t="n">
-        <v>611.3154670707711</v>
+        <v>763.7078559446861</v>
       </c>
       <c r="M18" t="n">
-        <v>966.7130713194426</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.208704312129</v>
+        <v>1498.318026423662</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025886</v>
+        <v>1823.003644137419</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787595</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198.792779527604</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="C19" t="n">
-        <v>198.792779527604</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D19" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E19" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F19" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477627</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5691,34 +5691,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204926</v>
+        <v>1397.56591065666</v>
       </c>
       <c r="T19" t="n">
-        <v>1609.220368204926</v>
+        <v>1174.473989506475</v>
       </c>
       <c r="U19" t="n">
-        <v>1320.100582534148</v>
+        <v>885.354203835697</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.416094328261</v>
+        <v>885.354203835697</v>
       </c>
       <c r="W19" t="n">
-        <v>775.9989242913</v>
+        <v>595.9370337987365</v>
       </c>
       <c r="X19" t="n">
-        <v>548.0093733932827</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.4412443578436</v>
+        <v>367.9474829007191</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>829.7662506587212</v>
+        <v>656.8549735204006</v>
       </c>
       <c r="C20" t="n">
-        <v>460.8037337183096</v>
+        <v>656.8549735204006</v>
       </c>
       <c r="D20" t="n">
-        <v>460.8037337183096</v>
+        <v>656.8549735204006</v>
       </c>
       <c r="E20" t="n">
-        <v>460.8037337183096</v>
+        <v>271.0667209221563</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870198</v>
+        <v>271.0667209221563</v>
       </c>
       <c r="G20" t="n">
         <v>49.81782892870198</v>
@@ -5752,25 +5752,25 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549147</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
         <v>2474.446703561746</v>
@@ -5779,25 +5779,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2482.668130108885</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T20" t="n">
-        <v>2273.663391597608</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U20" t="n">
-        <v>2273.663391597608</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V20" t="n">
-        <v>1942.600504254037</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="W20" t="n">
-        <v>1589.831848983923</v>
+        <v>1807.059903821414</v>
       </c>
       <c r="X20" t="n">
-        <v>1216.366090722843</v>
+        <v>1433.594145560334</v>
       </c>
       <c r="Y20" t="n">
-        <v>1216.366090722843</v>
+        <v>1043.454813584522</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870198</v>
@@ -5834,25 +5834,25 @@
         <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621914</v>
+        <v>550.7659925046441</v>
       </c>
       <c r="L21" t="n">
-        <v>787.1759816192941</v>
+        <v>838.7302756873066</v>
       </c>
       <c r="M21" t="n">
-        <v>1142.573585867966</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.78615209827</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090957</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852666</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435099</v>
@@ -5876,7 +5876,7 @@
         <v>1235.113935026672</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>623.4373184602331</v>
+        <v>107.8190088472323</v>
       </c>
       <c r="C22" t="n">
-        <v>454.5011355323262</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D22" t="n">
-        <v>304.3844961199904</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870198</v>
@@ -5934,28 +5934,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S22" t="n">
-        <v>1412.128928574975</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T22" t="n">
-        <v>1412.128928574975</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U22" t="n">
-        <v>1123.009142904197</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="V22" t="n">
-        <v>868.3246546983099</v>
+        <v>1027.66677375598</v>
       </c>
       <c r="W22" t="n">
-        <v>868.3246546983099</v>
+        <v>738.2496037190194</v>
       </c>
       <c r="X22" t="n">
-        <v>805.0857832904728</v>
+        <v>510.2600528210021</v>
       </c>
       <c r="Y22" t="n">
-        <v>805.0857832904728</v>
+        <v>289.467473677472</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1787.78977230843</v>
+        <v>1451.694690753047</v>
       </c>
       <c r="C23" t="n">
-        <v>1418.827255368018</v>
+        <v>1082.732173812635</v>
       </c>
       <c r="D23" t="n">
-        <v>1060.561556761267</v>
+        <v>1082.732173812635</v>
       </c>
       <c r="E23" t="n">
-        <v>674.7733041630231</v>
+        <v>696.9439212143911</v>
       </c>
       <c r="F23" t="n">
-        <v>263.7873993734156</v>
+        <v>696.9439212143911</v>
       </c>
       <c r="G23" t="n">
-        <v>119.9460879270497</v>
+        <v>281.1799825624146</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -5998,13 +5998,13 @@
         <v>774.34192141318</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
         <v>2307.92557020186</v>
@@ -6028,13 +6028,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X23" t="n">
-        <v>2564.528944348363</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.389612372551</v>
+        <v>1838.294530817169</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033209</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915338</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204566</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L24" t="n">
-        <v>578.3824410031191</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M24" t="n">
-        <v>933.7800452517906</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N24" t="n">
-        <v>1312.992611482095</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O24" t="n">
-        <v>1874.230193844104</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.117996141784</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>201.407218299303</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="C25" t="n">
-        <v>201.407218299303</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696726</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696726</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
         <v>51.29057888696726</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
-        <v>1610.693118163191</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1413.60167853324</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T25" t="n">
-        <v>1413.60167853324</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="U25" t="n">
-        <v>1375.939471413938</v>
+        <v>1020.704707769587</v>
       </c>
       <c r="V25" t="n">
-        <v>1121.254983208051</v>
+        <v>766.0202195637003</v>
       </c>
       <c r="W25" t="n">
-        <v>831.8378131710901</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="X25" t="n">
-        <v>603.8482622730728</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="Y25" t="n">
-        <v>383.0556831295427</v>
+        <v>476.6030495267397</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1414.32401404735</v>
+        <v>884.7619617647154</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.361497106938</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="D26" t="n">
-        <v>687.0957985001876</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E26" t="n">
-        <v>687.0957985001876</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F26" t="n">
-        <v>276.10989371058</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696726</v>
@@ -6226,13 +6226,13 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952477</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382138</v>
+        <v>502.422997893213</v>
       </c>
       <c r="L26" t="n">
-        <v>774.34192141318</v>
+        <v>846.5066693681792</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6253,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W26" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X26" t="n">
-        <v>2191.063186087283</v>
+        <v>1271.361801828837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1800.923854111471</v>
+        <v>1271.361801828837</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
         <v>72.80815385915349</v>
@@ -6308,25 +6308,25 @@
         <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>415.2482828074614</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L27" t="n">
-        <v>703.2125659901239</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M27" t="n">
-        <v>1252.512751564245</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N27" t="n">
-        <v>1887.233665290465</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004222</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>370.3434012272099</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C28" t="n">
-        <v>201.407218299303</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D28" t="n">
         <v>51.29057888696726</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163191</v>
+        <v>1514.94261767238</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163191</v>
+        <v>1514.94261767238</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163191</v>
+        <v>1514.94261767238</v>
       </c>
       <c r="U28" t="n">
-        <v>1544.875654341845</v>
+        <v>1225.822832001602</v>
       </c>
       <c r="V28" t="n">
-        <v>1290.191166135958</v>
+        <v>971.1383437957149</v>
       </c>
       <c r="W28" t="n">
-        <v>1000.773996098997</v>
+        <v>681.7211737587544</v>
       </c>
       <c r="X28" t="n">
-        <v>772.7844452009798</v>
+        <v>453.731622860737</v>
       </c>
       <c r="Y28" t="n">
-        <v>551.9918660574497</v>
+        <v>232.939043717207</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1292.058904819803</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="C29" t="n">
-        <v>923.0963878793912</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="D29" t="n">
-        <v>564.8306892726407</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="E29" t="n">
-        <v>179.0424366743965</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F29" t="n">
-        <v>119.9460879270497</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270497</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209955</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L29" t="n">
-        <v>774.34192141318</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.890447433488</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="V29" t="n">
-        <v>1644.827560089917</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.058904819803</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.058904819803</v>
+        <v>2109.223356006812</v>
       </c>
       <c r="Y29" t="n">
-        <v>1292.058904819803</v>
+        <v>1719.084024031</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>415.2482828074614</v>
+        <v>634.2717485637563</v>
       </c>
       <c r="L30" t="n">
-        <v>703.2125659901239</v>
+        <v>922.2360317464188</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.933479716344</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N30" t="n">
-        <v>1887.233665290465</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004222</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.2564948096031</v>
+        <v>220.2267618148742</v>
       </c>
       <c r="C31" t="n">
-        <v>349.3203118816961</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="D31" t="n">
-        <v>199.2036724693604</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304158</v>
@@ -6654,19 +6654,19 @@
         <v>1610.693118163191</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163191</v>
+        <v>1394.759014929509</v>
       </c>
       <c r="V31" t="n">
-        <v>1356.008629957304</v>
+        <v>1140.074526723622</v>
       </c>
       <c r="W31" t="n">
-        <v>1148.68708968139</v>
+        <v>850.6573566866614</v>
       </c>
       <c r="X31" t="n">
-        <v>920.6975387833729</v>
+        <v>622.667805788644</v>
       </c>
       <c r="Y31" t="n">
-        <v>699.9049596398428</v>
+        <v>401.8752266451139</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1045.361497106938</v>
       </c>
       <c r="D32" t="n">
-        <v>687.0957985001876</v>
+        <v>687.095798500188</v>
       </c>
       <c r="E32" t="n">
-        <v>687.0957985001876</v>
+        <v>687.095798500188</v>
       </c>
       <c r="F32" t="n">
-        <v>276.10989371058</v>
+        <v>276.1098937105805</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402486</v>
@@ -6706,22 +6706,22 @@
         <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>774.34192141318</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6742,10 +6742,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087283</v>
+        <v>2191.063186087284</v>
       </c>
       <c r="Y32" t="n">
-        <v>1800.923854111471</v>
+        <v>1800.923854111472</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204566</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031191</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.103354729339</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455559</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O33" t="n">
-        <v>2189.508334797642</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.117996141784</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>220.2267618148742</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="C34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="D34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="E34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J34" t="n">
         <v>74.92003001304158</v>
@@ -6888,22 +6888,22 @@
         <v>1413.60167853324</v>
       </c>
       <c r="T34" t="n">
-        <v>1394.461630563327</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>1105.341844892548</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="V34" t="n">
-        <v>850.6573566866614</v>
+        <v>646.7054835063905</v>
       </c>
       <c r="W34" t="n">
-        <v>850.6573566866614</v>
+        <v>357.2883134694299</v>
       </c>
       <c r="X34" t="n">
-        <v>622.667805788644</v>
+        <v>129.2987625714125</v>
       </c>
       <c r="Y34" t="n">
-        <v>401.8752266451139</v>
+        <v>51.29057888696727</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1884.536995359066</v>
+        <v>1251.561740077969</v>
       </c>
       <c r="C35" t="n">
-        <v>1620.621623575281</v>
+        <v>1251.561740077969</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.35592496853</v>
+        <v>893.296041471219</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>507.5077888729748</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>507.5077888729748</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870203</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
         <v>49.81782892870203</v>
@@ -6955,10 +6955,10 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561749</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R35" t="n">
         <v>2490.891446435101</v>
@@ -6967,22 +6967,22 @@
         <v>2490.891446435101</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435101</v>
+        <v>2281.886707923824</v>
       </c>
       <c r="U35" t="n">
-        <v>2237.30565062918</v>
+        <v>2028.300912117903</v>
       </c>
       <c r="V35" t="n">
-        <v>2237.30565062918</v>
+        <v>2028.300912117903</v>
       </c>
       <c r="W35" t="n">
-        <v>1884.536995359066</v>
+        <v>2028.300912117903</v>
       </c>
       <c r="X35" t="n">
-        <v>1884.536995359066</v>
+        <v>2028.300912117903</v>
       </c>
       <c r="Y35" t="n">
-        <v>1884.536995359066</v>
+        <v>1638.161580142091</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>684.6852699605255</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992742</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938187</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207037</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450558</v>
+        <v>93.24576819005932</v>
       </c>
       <c r="H36" t="n">
         <v>71.33540390088825</v>
@@ -7016,28 +7016,28 @@
         <v>49.81782892870203</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621914</v>
+        <v>560.6342506504943</v>
       </c>
       <c r="L36" t="n">
-        <v>580.6049013918279</v>
+        <v>848.5985338331568</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.100534384515</v>
+        <v>1203.996138081828</v>
       </c>
       <c r="N36" t="n">
-        <v>1813.596167377203</v>
+        <v>1583.208704312133</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.28178509096</v>
+        <v>1907.89432202589</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852669</v>
+        <v>2149.150088787599</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228522</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435101</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.3336936075788</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="C37" t="n">
-        <v>472.3975106796719</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="D37" t="n">
-        <v>472.3975106796719</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E37" t="n">
-        <v>324.4844170972788</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F37" t="n">
-        <v>324.4844170972788</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G37" t="n">
-        <v>156.4714025375973</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870203</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T37" t="n">
-        <v>1386.128447054742</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U37" t="n">
-        <v>1097.008661383963</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="V37" t="n">
-        <v>1097.008661383963</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="W37" t="n">
-        <v>807.5914913470028</v>
+        <v>992.9340919249064</v>
       </c>
       <c r="X37" t="n">
-        <v>807.5914913470028</v>
+        <v>916.1367855589657</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.5914913470028</v>
+        <v>695.3442064154356</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.604331794951</v>
+        <v>1290.872609247925</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.857684923304</v>
+        <v>921.9100923075137</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165539</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183096</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H38" t="n">
         <v>49.81782892870198</v>
@@ -7195,7 +7195,7 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R38" t="n">
         <v>2490.891446435099</v>
@@ -7204,22 +7204,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U38" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V38" t="n">
-        <v>2155.838745326145</v>
+        <v>2033.780596493851</v>
       </c>
       <c r="W38" t="n">
-        <v>1803.070090056031</v>
+        <v>1681.011941223737</v>
       </c>
       <c r="X38" t="n">
-        <v>1429.604331794951</v>
+        <v>1681.011941223737</v>
       </c>
       <c r="Y38" t="n">
-        <v>1429.604331794951</v>
+        <v>1290.872609247925</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870198</v>
@@ -7286,19 +7286,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>585.5954182033038</v>
+        <v>779.3989916965335</v>
       </c>
       <c r="C40" t="n">
-        <v>416.6592352753969</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="D40" t="n">
-        <v>266.5425958630611</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="E40" t="n">
-        <v>118.629502280668</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F40" t="n">
-        <v>118.629502280668</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G40" t="n">
-        <v>118.629502280668</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
         <v>49.81782892870198</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1505.443183112052</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1505.443183112052</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>1505.443183112052</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V40" t="n">
-        <v>1505.443183112052</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="W40" t="n">
-        <v>1216.026013075091</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="X40" t="n">
-        <v>988.0364621770736</v>
+        <v>961.0474565267732</v>
       </c>
       <c r="Y40" t="n">
-        <v>767.2438830335435</v>
+        <v>961.0474565267732</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.2164766055252</v>
+        <v>1396.223468854636</v>
       </c>
       <c r="C41" t="n">
-        <v>49.81782892870198</v>
+        <v>1027.260951914225</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870198</v>
+        <v>668.9952533074743</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870198</v>
+        <v>283.20700070923</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870198</v>
+        <v>283.20700070923</v>
       </c>
       <c r="G41" t="n">
         <v>49.81782892870198</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.252949520223</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176653</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="W41" t="n">
-        <v>1218.421406906539</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="X41" t="n">
-        <v>844.9556486454587</v>
+        <v>1786.362800830448</v>
       </c>
       <c r="Y41" t="n">
-        <v>454.816316669647</v>
+        <v>1396.223468854636</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448538</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M42" t="n">
-        <v>932.3072952935254</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N42" t="n">
-        <v>1311.51986152383</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O42" t="n">
-        <v>1636.205479237587</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P42" t="n">
         <v>2149.150088787596</v>
@@ -7517,25 +7517,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.7837448513377</v>
+        <v>423.2366604044262</v>
       </c>
       <c r="C43" t="n">
-        <v>347.8475619234308</v>
+        <v>423.2366604044262</v>
       </c>
       <c r="D43" t="n">
-        <v>197.7309225110951</v>
+        <v>273.1200209920904</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870198</v>
+        <v>125.2069274096973</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870198</v>
+        <v>125.2069274096973</v>
       </c>
       <c r="G43" t="n">
         <v>49.81782892870198</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="U43" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="V43" t="n">
-        <v>1436.631509760085</v>
+        <v>1053.667255276213</v>
       </c>
       <c r="W43" t="n">
-        <v>1147.214339723125</v>
+        <v>1053.667255276213</v>
       </c>
       <c r="X43" t="n">
-        <v>919.2247888251076</v>
+        <v>825.677704378196</v>
       </c>
       <c r="Y43" t="n">
-        <v>698.4322096815774</v>
+        <v>604.8851252346659</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>838.9025835816184</v>
+        <v>829.7662506587212</v>
       </c>
       <c r="C44" t="n">
-        <v>838.9025835816184</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="D44" t="n">
-        <v>838.9025835816184</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="E44" t="n">
-        <v>838.9025835816184</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="F44" t="n">
-        <v>838.9025835816184</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G44" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870196</v>
@@ -7654,7 +7654,7 @@
         <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
@@ -7675,25 +7675,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326144</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U44" t="n">
-        <v>1912.873458171115</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="V44" t="n">
-        <v>1581.810570827544</v>
+        <v>2332.739836229849</v>
       </c>
       <c r="W44" t="n">
-        <v>1229.04191555743</v>
+        <v>1979.971180959735</v>
       </c>
       <c r="X44" t="n">
-        <v>1229.04191555743</v>
+        <v>1606.505422698655</v>
       </c>
       <c r="Y44" t="n">
-        <v>838.9025835816184</v>
+        <v>1216.366090722843</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J45" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>288.9454078621912</v>
+        <v>560.6342506504908</v>
       </c>
       <c r="L45" t="n">
-        <v>576.9096910448537</v>
+        <v>848.5985338331533</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.689586177934</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.18521917062</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O45" t="n">
-        <v>2115.870836884377</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.126603646086</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q45" t="n">
         <v>2468.480498228519</v>
@@ -7754,22 +7754,22 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.518384216717</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>663.6736923492481</v>
+        <v>362.8008814193012</v>
       </c>
       <c r="C46" t="n">
-        <v>494.7375094213412</v>
+        <v>362.8008814193012</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6208700090054</v>
+        <v>212.6842420069654</v>
       </c>
       <c r="E46" t="n">
-        <v>196.7077764266123</v>
+        <v>212.6842420069654</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870196</v>
+        <v>212.6842420069654</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870196</v>
+        <v>212.6842420069654</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870196</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204926</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U46" t="n">
-        <v>1320.100582534148</v>
+        <v>993.2314762910884</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.100582534148</v>
+        <v>993.2314762910884</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.683412497187</v>
+        <v>993.2314762910884</v>
       </c>
       <c r="X46" t="n">
-        <v>1030.683412497187</v>
+        <v>765.241925393071</v>
       </c>
       <c r="Y46" t="n">
-        <v>845.3221571794878</v>
+        <v>544.4493462495409</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>32.60525894184411</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>220.0452252569063</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>148.3421391932279</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>118.7395615125295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.75330911708812</v>
+        <v>188.6850150503356</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>212.3901924994346</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.0452252569072</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>7.177264930046988</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.177264930046817</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>238.9413784325779</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302946</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.89368480302949</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>195.8611932580296</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930047443</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>221.2358239962575</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>171.8056761048648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.1772649300475</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.89368480302932</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>17.17015012962298</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.392841563254478e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>148.3421391932305</v>
       </c>
       <c r="L36" t="n">
-        <v>3.73253570401414</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>263.7353825697133</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>239.6798654165484</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>274.4331745336366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>148.3421391932271</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>244.8305968529377</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>47.24019771780135</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>380.2454042428525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.35834941386635</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>25.5113113943454</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>216.839567047504</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>67.96895394968166</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>96.00829272309045</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>50.14070125298477</v>
+        <v>71.44310047544913</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>141.3565515044937</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>25.51131139434497</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>107.5279264871797</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>173.3591597564241</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>88.32202550281399</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.69220560701015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>192.5698961919369</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>116.6463998087483</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>50.14070125298477</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>109.8256529792829</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>163.1031726952784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.2034009335546</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>74.02814425255599</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>37.12854915021033</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>248.9430027659611</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>358.6185677292052</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>189.0351775900801</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>7.946417756042734</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
@@ -24657,7 +24657,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>221.0692986309371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>348.3706604818382</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>170.028506068195</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,13 +24894,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>72.45382561272487</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>81.27467346343593</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>189.0351775900801</v>
+        <v>189.0351775900796</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9123544484685</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>141.356551504494</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>103.9966737050603</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>260.1118928118755</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -25207,7 +25207,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>71.44310047544646</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>71.44310047544647</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.23676041990748</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>149.6803220867559</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>142.7737113680774</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>174.8607248391702</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>67.96895394968166</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>50.63456613497266</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>79.36164447446659</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>347.0582305709526</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>180.5510192027339</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>50.14070125298483</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>91.69767691789922</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -25845,10 +25845,10 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>81.27467346343545</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>10.51430356438325</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>171.1821643669382</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>91.8344900182385</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.07701058757266</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662906.1452858025</v>
+        <v>662906.1452858028</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662906.1452858028</v>
+        <v>662906.1452858027</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675166.142515598</v>
+        <v>675166.1425155979</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675166.142515598</v>
+        <v>675166.1425155981</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662906.1452858028</v>
+        <v>662906.1452858027</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662906.1452858028</v>
+        <v>662906.1452858027</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>662906.1452858027</v>
+        <v>662906.1452858028</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
         <v>406590.8011732852</v>
@@ -26328,13 +26328,13 @@
         <v>406590.8011732853</v>
       </c>
       <c r="G2" t="n">
-        <v>406590.8011732851</v>
+        <v>406590.8011732852</v>
       </c>
       <c r="H2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732854</v>
       </c>
       <c r="I2" t="n">
-        <v>412474.1404974385</v>
+        <v>412474.1404974384</v>
       </c>
       <c r="J2" t="n">
         <v>412474.1404974385</v>
@@ -26343,7 +26343,7 @@
         <v>412474.1404974383</v>
       </c>
       <c r="L2" t="n">
-        <v>412474.1404974383</v>
+        <v>412474.1404974386</v>
       </c>
       <c r="M2" t="n">
         <v>406590.8011732854</v>
@@ -26352,10 +26352,10 @@
         <v>406590.8011732851</v>
       </c>
       <c r="O2" t="n">
-        <v>406590.8011732854</v>
+        <v>406590.8011732853</v>
       </c>
       <c r="P2" t="n">
-        <v>406590.8011732851</v>
+        <v>406590.8011732852</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648292</v>
+        <v>4895.439270648232</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15880.58142742346</v>
       </c>
       <c r="G4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="H4" t="n">
         <v>15880.58142742346</v>
@@ -26441,25 +26441,25 @@
         <v>18784.15557418252</v>
       </c>
       <c r="J4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418252</v>
       </c>
       <c r="K4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="L4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="M4" t="n">
-        <v>15880.58142742357</v>
+        <v>15880.58142742358</v>
       </c>
       <c r="N4" t="n">
         <v>15880.58142742345</v>
       </c>
       <c r="O4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742345</v>
       </c>
       <c r="P4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742344</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425672</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104611.5300210421</v>
+        <v>104567.3942423609</v>
       </c>
       <c r="C6" t="n">
-        <v>104611.5300210421</v>
+        <v>104567.3942423607</v>
       </c>
       <c r="D6" t="n">
-        <v>104611.5300210419</v>
+        <v>104567.3942423609</v>
       </c>
       <c r="E6" t="n">
-        <v>-591847.7701345187</v>
+        <v>-597314.8958191525</v>
       </c>
       <c r="F6" t="n">
-        <v>332803.809241605</v>
+        <v>327336.6835569714</v>
       </c>
       <c r="G6" t="n">
-        <v>332803.8092416049</v>
+        <v>327336.6835569715</v>
       </c>
       <c r="H6" t="n">
-        <v>332803.8092416052</v>
+        <v>327336.6835569717</v>
       </c>
       <c r="I6" t="n">
-        <v>329768.8451800693</v>
+        <v>324519.6209518858</v>
       </c>
       <c r="J6" t="n">
-        <v>334664.2844507176</v>
+        <v>329415.0602225342</v>
       </c>
       <c r="K6" t="n">
-        <v>334664.2844507174</v>
+        <v>329415.060222534</v>
       </c>
       <c r="L6" t="n">
-        <v>334664.2844507174</v>
+        <v>329415.0602225343</v>
       </c>
       <c r="M6" t="n">
-        <v>182206.4709947465</v>
+        <v>176739.3453101129</v>
       </c>
       <c r="N6" t="n">
-        <v>332803.8092416049</v>
+        <v>327336.6835569714</v>
       </c>
       <c r="O6" t="n">
-        <v>332803.8092416052</v>
+        <v>327336.6835569715</v>
       </c>
       <c r="P6" t="n">
-        <v>332803.8092416049</v>
+        <v>327336.6835569714</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087747</v>
@@ -26816,10 +26816,10 @@
         <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M4" t="n">
         <v>622.7228616087754</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831609</v>
+        <v>18.40937447831586</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>445.9900909703315</v>
       </c>
       <c r="L12" t="n">
-        <v>323.4782722576649</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M12" t="n">
         <v>358.9874790390621</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>243.692693698696</v>
+        <v>463.7379189556023</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N15" t="n">
-        <v>531.3851353854549</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>446.7048319304658</v>
       </c>
       <c r="P15" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R15" t="n">
         <v>22.637321420787</v>
@@ -35907,7 +35907,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K18" t="n">
-        <v>216.278163074841</v>
+        <v>370.2098690080885</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158207</v>
@@ -35974,19 +35974,19 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>622.7228616087745</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R18" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
@@ -36202,10 +36202,10 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L21" t="n">
-        <v>503.2632058152553</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390621</v>
@@ -36214,16 +36214,16 @@
         <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>622.7228616087747</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P21" t="n">
-        <v>243.692693698696</v>
+        <v>463.7379189556032</v>
       </c>
       <c r="Q21" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815592</v>
+        <v>425.8932445116062</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891397</v>
@@ -36375,7 +36375,7 @@
         <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>307.4967100263347</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q23" t="n">
         <v>176.8680561605024</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>181.5248539577529</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158207</v>
@@ -36451,13 +36451,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>566.9066488505142</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>562.1554623386332</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R24" t="n">
         <v>22.637321420787</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669508</v>
+        <v>205.5783561699803</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575407</v>
@@ -36603,7 +36603,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>491.6096643845887</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
@@ -36676,16 +36676,16 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577529</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>554.8486722970918</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
         <v>327.9652704179363</v>
@@ -36694,10 +36694,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969982</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
@@ -36843,7 +36843,7 @@
         <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
-        <v>503.0453391921691</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
         <v>392.7100487188047</v>
@@ -36855,7 +36855,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722495</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>402.7606779540104</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>554.8486722970918</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179363</v>
@@ -36931,10 +36931,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161275</v>
+        <v>354.736529046175</v>
       </c>
       <c r="M32" t="n">
         <v>418.7159795815592</v>
@@ -37086,13 +37086,13 @@
         <v>392.7100487188047</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2131298993172</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q32" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722495</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577529</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>345.1354205475593</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P33" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
         <v>22.637321420787</v>
@@ -37323,13 +37323,13 @@
         <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962908</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722835</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577529</v>
+        <v>329.8669931509834</v>
       </c>
       <c r="L36" t="n">
-        <v>294.6055490198349</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>622.7228616087754</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>622.7228616087754</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
         <v>327.9652704179363</v>
@@ -37405,10 +37405,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
         <v>300.3194450962879</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577529</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158207</v>
@@ -37876,7 +37876,7 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>518.1258682323327</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
         <v>322.5559691322456</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>181.5248539577528</v>
+        <v>329.8669931509799</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>603.8180758919998</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>622.7228616087745</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O45" t="n">
         <v>327.9652704179363</v>
@@ -38116,7 +38116,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R45" t="n">
         <v>22.63732142078699</v>
